--- a/inputs/hp.xlsx
+++ b/inputs/hp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Documents\district_thermal_energy_systems_with_power_markets\source_code\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Documents\district_thermal_energy_systems_with_power_markets\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F627DE-86AA-43B3-AD5E-C41BECE859AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0762CE9F-3F40-42BE-85A2-6203DA435A17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-1965" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025" sheetId="1" r:id="rId1"/>
@@ -374,7 +374,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>755876</v>
+        <v>687160</v>
       </c>
     </row>
   </sheetData>
@@ -398,7 +398,7 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2">
         <f>'2025'!A2*(1-0.25*0.2)</f>
-        <v>718082.2</v>
+        <v>652802</v>
       </c>
     </row>
   </sheetData>
@@ -422,7 +422,7 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2">
         <f>'2025'!A2*(1-0.25*0.4)</f>
-        <v>680288.4</v>
+        <v>618444</v>
       </c>
     </row>
   </sheetData>
@@ -446,7 +446,7 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2">
         <f>'2025'!A2*(1-0.25*0.6)</f>
-        <v>642494.6</v>
+        <v>584086</v>
       </c>
     </row>
   </sheetData>
@@ -470,7 +470,7 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2">
         <f>'2025'!A2*(1-0.25*0.8)</f>
-        <v>604700.80000000005</v>
+        <v>549728</v>
       </c>
     </row>
   </sheetData>
@@ -494,7 +494,7 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2">
         <f>'2025'!A2*(1-0.25*1)</f>
-        <v>566907</v>
+        <v>515370</v>
       </c>
     </row>
   </sheetData>
